--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -55,15 +58,9 @@
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
@@ -73,37 +70,37 @@
     <t>small</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>item</t>
+    <t>hard</t>
   </si>
   <si>
     <t>would</t>
@@ -112,25 +109,16 @@
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>little</t>
   </si>
   <si>
     <t>like</t>
@@ -533,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,16 +661,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7688172043010753</v>
+        <v>0.78125</v>
       </c>
       <c r="C5">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.6451612903225806</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7475728155339806</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C6">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.6037735849056604</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7323943661971831</v>
+        <v>0.7087378640776699</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.484375</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.703125</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.3459016393442623</v>
+        <v>0.3434426229508197</v>
       </c>
       <c r="L8">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M8">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,16 +911,16 @@
         <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.3089080459770115</v>
+        <v>0.3142037302725968</v>
       </c>
       <c r="L9">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M9">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6041666666666666</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.2655601659751037</v>
+        <v>0.2489626556016598</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M10">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,38 +990,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>71</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>48</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11">
+        <v>0.1987951807228916</v>
+      </c>
+      <c r="L11">
         <v>33</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>33</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>22</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11">
-        <v>0.1807228915662651</v>
-      </c>
-      <c r="L11">
-        <v>30</v>
-      </c>
-      <c r="M11">
-        <v>30</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1044,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5630252100840336</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1070,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.1467889908256881</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4811594202898551</v>
+        <v>0.4724409448818898</v>
       </c>
       <c r="C13">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1120,31 +1108,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.07975460122699386</v>
+        <v>0.07456140350877193</v>
       </c>
       <c r="L13">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M13">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1050</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1152,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4457831325301205</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1170,31 +1158,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.03114860480207658</v>
+        <v>0.03766233766233766</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1493</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1202,13 +1190,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4315789473684211</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C15">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1220,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1228,13 +1216,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4094488188976378</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C16">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1246,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1254,13 +1242,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.359375</v>
+        <v>0.3203125</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1272,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1280,13 +1268,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3370786516853932</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1298,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>59</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1306,13 +1294,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3267326732673267</v>
+        <v>0.2654028436018958</v>
       </c>
       <c r="C19">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D19">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1324,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1332,13 +1320,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2654028436018958</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C20">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1350,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1358,13 +1346,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2564102564102564</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1376,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>87</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1384,13 +1372,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2371134020618557</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1402,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>148</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1410,13 +1398,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.189873417721519</v>
+        <v>0.185</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1428,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>256</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1436,25 +1424,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1811594202898551</v>
+        <v>0.1842496285289748</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>226</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1462,25 +1450,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1797919762258544</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C25">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="E25">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>552</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1488,13 +1476,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1645569620253164</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C26">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1506,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>264</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1514,13 +1502,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.155</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1532,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1540,13 +1528,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1408045977011494</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="C28">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D28">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1558,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1566,13 +1554,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1355140186915888</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1584,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>185</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1592,129 +1580,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.13215859030837</v>
+        <v>0.06754530477759473</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.1123595505617977</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.09863013698630137</v>
-      </c>
-      <c r="C32">
-        <v>36</v>
-      </c>
-      <c r="D32">
-        <v>36</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.06696428571428571</v>
-      </c>
-      <c r="C33">
-        <v>30</v>
-      </c>
-      <c r="D33">
-        <v>31</v>
-      </c>
-      <c r="E33">
-        <v>0.03</v>
-      </c>
-      <c r="F33">
-        <v>0.97</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.06085526315789474</v>
-      </c>
-      <c r="C34">
-        <v>37</v>
-      </c>
-      <c r="D34">
-        <v>37</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
